--- a/src/test/resources/testData/Test_Data.xlsx
+++ b/src/test/resources/testData/Test_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShashiKumarSidhhalin\Desktop\TestBuyDrirectWEB\com.Buydirect-WEB\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShashiKumarSidhhalin\Documents\BuydrictRepo\com.Buydirect\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B4F0FF-9FDD-45B7-BDC5-530A1F2A2CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD14C367-C68E-41D9-9472-FC9BA0CB7942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumer_data" sheetId="1" r:id="rId1"/>
@@ -162,12 +162,6 @@
     <t>special@characters</t>
   </si>
   <si>
-    <t>InValid_FirstOrLasrName</t>
-  </si>
-  <si>
-    <t>Valid_FirstOrLasrName</t>
-  </si>
-  <si>
     <t>a"b(c)d,e:f;g&lt;h&gt;i[j\k]l@example.com</t>
   </si>
   <si>
@@ -376,6 +370,12 @@
   </si>
   <si>
     <t>InValid_RoutingNumber</t>
+  </si>
+  <si>
+    <t>Valid_FirstOrLastName</t>
+  </si>
+  <si>
+    <t>InValid_FirstOrLastName</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -924,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
@@ -1015,7 +1015,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -1059,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>21</v>
@@ -1134,7 +1134,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="10">
         <v>1946</v>
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB32B1-3C36-4BA4-8D47-8B7AE7E13398}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1239,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>28</v>
@@ -1263,12 +1263,12 @@
         <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>39</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -1294,31 +1294,31 @@
         <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1329,45 +1329,45 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="8"/>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="8">
         <v>7778541</v>
@@ -1396,67 +1396,67 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1467,36 +1467,36 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" s="8">
         <v>12345</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="8">
         <v>185</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" s="8">
         <v>98765</v>
@@ -1547,10 +1547,10 @@
     </row>
     <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="8">
         <v>25</v>
@@ -1562,7 +1562,7 @@
         <v>23</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="1"/>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="8">
         <v>1597</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="17" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" s="8">
         <v>123</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" s="8">
         <v>1210032</v>
@@ -1637,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35D75B7-CD2E-429F-8BC1-B940CD2875DE}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1650,18 +1650,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1">
         <v>121000358</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1">
         <v>121000359</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1">
         <v>121000358</v>
